--- a/script/测试用例 冷.xlsx
+++ b/script/测试用例 冷.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>模式</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>费用小计</t>
+  </si>
+  <si>
+    <t>调度次数</t>
+  </si>
+  <si>
+    <t>生成详单个数</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +2379,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3613,6 +3619,16 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="G1:J1"/>
